--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B619F1-9FB9-4FA7-9523-3E81559A2BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BF3C1-C3C2-4E8E-8E34-C85287E5FCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -82,6 +82,9 @@
   <si>
     <t>Napisanie pierwszego prostego pliku .xsl który formatuje zserializowany plik .xml na .csv + kod w C#
 Niestety dalej wszystko hardcoded, plik .xslt nie jest uniwersalny i zakłada że nazwy kolumn to ProductionYear, VIN, Model</t>
+  </si>
+  <si>
+    <t>Połączenie się z repo GitLaba, dodano plik Resources.resx dla ścieżek do pliku</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,15 +643,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,19 +801,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -820,9 +833,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BF3C1-C3C2-4E8E-8E34-C85287E5FCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7555735B-0A27-4B9F-A02B-36724A96AEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Połączenie się z repo GitLaba, dodano plik Resources.resx dla ścieżek do pliku</t>
+  </si>
+  <si>
+    <t>Razem</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,7 @@
     <col min="3" max="3" width="101.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -499,8 +502,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44013</v>
       </c>
@@ -510,8 +516,12 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>SUM(B:B)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44013</v>
       </c>
@@ -522,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44014</v>
       </c>
@@ -533,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44014</v>
       </c>
@@ -544,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44015</v>
       </c>
@@ -555,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44015</v>
       </c>
@@ -566,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44017</v>
       </c>
@@ -577,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44018</v>
       </c>
@@ -588,7 +598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44018</v>
       </c>
@@ -599,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44019</v>
       </c>
@@ -610,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44020</v>
       </c>
@@ -621,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44021</v>
       </c>
@@ -632,7 +642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44021</v>
       </c>
@@ -643,7 +653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44021</v>
       </c>
@@ -660,12 +670,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,15 +808,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -833,10 +844,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7555735B-0A27-4B9F-A02B-36724A96AEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA8E90C-8B15-492D-A7A9-87C08B3518BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Razem</t>
+  </si>
+  <si>
+    <t>DefaultDeserializer + katalogi</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,7 +521,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>20</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,6 +665,17 @@
       </c>
       <c r="C15" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -676,6 +690,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -807,15 +830,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -826,6 +840,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -841,12 +863,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA8E90C-8B15-492D-A7A9-87C08B3518BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7846A0B8-2903-4F82-98AF-58937FB0F296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>DefaultDeserializer + katalogi</t>
+  </si>
+  <si>
+    <t>DefaultSerializer + testy</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>21.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,6 +679,17 @@
       </c>
       <c r="C16" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7846A0B8-2903-4F82-98AF-58937FB0F296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0282C947-A6EE-4923-9101-74F8085F6F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>DefaultSerializer + testy</t>
+  </si>
+  <si>
+    <t>atrybuty w elementy</t>
+  </si>
+  <si>
+    <t>Próba ogarnięcia XSLT. Ustawianie namespace. Czy jest sens w dynamicznym tworzeniu XSLT dla każdego templatu osobno?</t>
+  </si>
+  <si>
+    <t>Projektowanie rozwiązania problemu dynamicznego XSLT</t>
+  </si>
+  <si>
+    <t>Poprawna nauka XSLT. Nowy plik output.xsl</t>
   </si>
 </sst>
 </file>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,7 +536,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,6 +702,50 @@
       </c>
       <c r="C17" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -704,15 +760,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -844,6 +891,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -854,14 +910,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -877,4 +925,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0282C947-A6EE-4923-9101-74F8085F6F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB60D47-8A1A-48D0-98C0-4A2AB90D92BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Poprawna nauka XSLT. Nowy plik output.xsl</t>
+  </si>
+  <si>
+    <t>Pisanie kolejnego pliku XSL, z łatwo edytowalnymi kolumnami do wybrania</t>
+  </si>
+  <si>
+    <t>Oddzielenie XSLT z głównego projektu do osobnego. Praca nad finalną aplikacją do XSLT.</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,7 +542,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>27</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,6 +752,28 @@
       </c>
       <c r="C21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -760,6 +788,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -891,15 +928,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -910,6 +938,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -925,12 +961,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB60D47-8A1A-48D0-98C0-4A2AB90D92BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11C985-348E-45FF-88AB-08D50A10AB45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Oddzielenie XSLT z głównego projektu do osobnego. Praca nad finalną aplikacją do XSLT.</t>
+  </si>
+  <si>
+    <t>Praca nad poprawnymi aplikacjami konsolowymi.</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,6 +777,17 @@
       </c>
       <c r="C23" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -788,15 +802,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -928,6 +933,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -938,14 +952,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -961,4 +967,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A11C985-348E-45FF-88AB-08D50A10AB45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE801FB-2E6E-4CC7-9500-6F0165BA06F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Praca nad poprawnymi aplikacjami konsolowymi.</t>
+  </si>
+  <si>
+    <t>Praca nad poprawnymi aplikacjami konsolowymi - dla dynamicznego</t>
+  </si>
+  <si>
+    <t>Uczenie się o testach.</t>
+  </si>
+  <si>
+    <t>Nowe testy</t>
   </si>
 </sst>
 </file>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +554,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>33.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,6 +797,39 @@
       </c>
       <c r="C24" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE801FB-2E6E-4CC7-9500-6F0165BA06F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25C47A-12E3-4B95-8836-9E5312B8A397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Nowe testy</t>
+  </si>
+  <si>
+    <t>XSLConstructor. Embedded resources.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -830,6 +833,17 @@
       </c>
       <c r="C27" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -844,6 +858,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -975,15 +998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -994,6 +1008,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1009,12 +1031,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25C47A-12E3-4B95-8836-9E5312B8A397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F859E31-3357-4F76-AF62-730973791AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>XSLConstructor. Embedded resources.</t>
+  </si>
+  <si>
+    <t>XSLConstructor w osobnym programie</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
   </si>
 </sst>
 </file>
@@ -518,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,7 +563,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,6 +850,39 @@
       </c>
       <c r="C28" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -858,15 +897,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -998,6 +1028,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1008,14 +1047,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1031,4 +1062,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F859E31-3357-4F76-AF62-730973791AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FD957-CE3A-43D0-97FA-D88A6967C7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>Połączone projekty</t>
+  </si>
+  <si>
+    <t>Konsultacje</t>
+  </si>
+  <si>
+    <t>Bugfixing. Projektowanie gotowego rozwiązania. Opcja -x. RabbitMQ response</t>
   </si>
 </sst>
 </file>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,7 +572,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>46</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,13 +885,46 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>44034</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -897,6 +939,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1028,15 +1079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1047,6 +1089,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1062,12 +1112,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FD957-CE3A-43D0-97FA-D88A6967C7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5F455-F9C9-4B10-9541-24D20A81D627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>Bugfixing. Projektowanie gotowego rozwiązania. Opcja -x. RabbitMQ response</t>
+  </si>
+  <si>
+    <t>Response w RabbitMQ. Stworzenie bazy danych MSSQL dla bazy CarsDB. Query wczytujące dane z ProductionResults.xml. 
+Sprawdzanie możliwości edycji bazy danych z poziomu kodu C#: Entity Framework, System.Data.SqlClient</t>
+  </si>
+  <si>
+    <t>Query do tabeli z relacją wiele do wielu w SQL. Łączenie się z bazą danych z poziomu C#. Wywoływanie query z poziomu C#. 
+Przeniesienie RabbitReceive na .NetFramework. Prototyp gotowego rozwiązania.</t>
   </si>
 </sst>
 </file>
@@ -533,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -572,7 +580,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>54.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,6 +933,28 @@
       </c>
       <c r="C34" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5F455-F9C9-4B10-9541-24D20A81D627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F1329-72B4-41F5-9E52-AE5EADCB7E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -150,6 +150,12 @@
   <si>
     <t>Query do tabeli z relacją wiele do wielu w SQL. Łączenie się z bazą danych z poziomu C#. Wywoływanie query z poziomu C#. 
 Przeniesienie RabbitReceive na .NetFramework. Prototyp gotowego rozwiązania.</t>
+  </si>
+  <si>
+    <t>internal_value dla XMLExportDC. Upgrade i instalacja VS2019</t>
+  </si>
+  <si>
+    <t>Instalacja ETCore. Budowa modelu istniejącej bazy. Tutoriale do EF.</t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,7 +586,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>62.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,6 +961,39 @@
       </c>
       <c r="C36" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -969,15 +1008,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1109,6 +1139,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1119,14 +1158,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1142,4 +1173,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F1329-72B4-41F5-9E52-AE5EADCB7E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927D923-5BC5-4590-9A6E-754AD73EBA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Instalacja ETCore. Budowa modelu istniejącej bazy. Tutoriale do EF.</t>
+  </si>
+  <si>
+    <t>Przeniesienia Consumera do EFCore.</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -586,7 +589,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>66.5</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,6 +997,17 @@
       </c>
       <c r="C39" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1008,6 +1022,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1139,15 +1162,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1158,6 +1172,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1173,12 +1195,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927D923-5BC5-4590-9A6E-754AD73EBA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9AE7D-5190-451D-8EF0-C389F38B41C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>Przeniesienia Consumera do EFCore.</t>
+  </si>
+  <si>
+    <t>Nowa tabela bazie stworzona przy użyciu migracji EF. Zmieniona wiadomość wyjątku dodawania do bazy danych. 
+Logowanie czasu dostarczenia raportu i czy został poprawnie dodany. Nowe testy dla XMLExport.</t>
   </si>
 </sst>
 </file>
@@ -550,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,7 +593,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>70.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,6 +1012,17 @@
       </c>
       <c r="C40" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1022,15 +1037,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1162,6 +1168,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1172,14 +1187,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1195,4 +1202,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9AE7D-5190-451D-8EF0-C389F38B41C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB8FC2-9135-43E7-AD2B-3B1768382DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -163,6 +163,13 @@
   <si>
     <t>Nowa tabela bazie stworzona przy użyciu migracji EF. Zmieniona wiadomość wyjątku dodawania do bazy danych. 
 Logowanie czasu dostarczenia raportu i czy został poprawnie dodany. Nowe testy dla XMLExport.</t>
+  </si>
+  <si>
+    <t>Dodawanie summaries. Czytanie o sposobach dokumentacji. Dokumentacja do XMLExport</t>
+  </si>
+  <si>
+    <t>Nowy projekt z asp.net. Tutorial dla signalr i asp.net. Wyświetlanie z bazy CarsDB. Próba ogarnięcia przesyłania danych
+za pomocą signalr.</t>
   </si>
 </sst>
 </file>
@@ -554,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +600,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>74.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,6 +1030,28 @@
       </c>
       <c r="C41" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB8FC2-9135-43E7-AD2B-3B1768382DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D77F51-FB64-4E36-A192-549DAAC4766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -170,6 +170,12 @@
   <si>
     <t>Nowy projekt z asp.net. Tutorial dla signalr i asp.net. Wyświetlanie z bazy CarsDB. Próba ogarnięcia przesyłania danych
 za pomocą signalr.</t>
+  </si>
+  <si>
+    <t>Praca nad projektem SignalR. Pierwszy kontakt z dependency injection. Prototyp przesyłania danych za pomocą signalr</t>
+  </si>
+  <si>
+    <t>Sprzątanie niepotrzebnego kodu. Synchro projektu signalr z rabbitmq.</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C46:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +606,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>82.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,6 +1058,28 @@
       </c>
       <c r="C43" s="5" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D77F51-FB64-4E36-A192-549DAAC4766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2EC62C-001E-4F1C-8A34-33E4380C75E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Sprzątanie niepotrzebnego kodu. Synchro projektu signalr z rabbitmq.</t>
+  </si>
+  <si>
+    <t>Prototyp rejestracji.</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>89.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,6 +1083,17 @@
       </c>
       <c r="C45" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1094,6 +1108,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1225,15 +1248,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1244,6 +1258,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1259,12 +1281,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2EC62C-001E-4F1C-8A34-33E4380C75E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC9606-5309-4A48-AD5F-3FB4A908DF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Prototyp rejestracji.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,7 +612,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>91.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,10 +1093,21 @@
         <v>44046</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC9606-5309-4A48-AD5F-3FB4A908DF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC0A2E-83B5-47B3-8D29-FDAFC48E4866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
+    <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -181,7 +175,13 @@
     <t>Prototyp rejestracji.</t>
   </si>
   <si>
-    <t>.</t>
+    <t>Praca nad projektem</t>
+  </si>
+  <si>
+    <t>Wypełnienie i wysłanie danych do dziekanatu o praktyki. Próba dopisania emaila do projektu i zmienienia potwierdzania. (nieudana)</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie. Nowy błąd i szukanie rozwiązania.</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>94.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,6 +1108,28 @@
       </c>
       <c r="C47" s="5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1116,21 +1138,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1262,24 +1269,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1295,4 +1300,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC0A2E-83B5-47B3-8D29-FDAFC48E4866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A7974-54F7-4ED1-B1DE-0A4ED2119A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Wyszukiwanie. Nowy błąd i szukanie rozwiązania.</t>
+  </si>
+  <si>
+    <t>sql dependency manager jako singleton. Naprawa buga z multidependency</t>
+  </si>
+  <si>
+    <t>Wysyłanie danych w pętli czasowej. Próba odpalenia singletona na contexcie, nieudana, nie da się bez restrukturyzacji projektu</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,7 +618,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,6 +1136,28 @@
       </c>
       <c r="C49" s="5" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1138,6 +1166,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1269,22 +1312,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1300,21 +1345,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A7974-54F7-4ED1-B1DE-0A4ED2119A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327C796-83EB-498F-AFF7-B105FF8C06A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Wysyłanie danych w pętli czasowej. Próba odpalenia singletona na contexcie, nieudana, nie da się bez restrukturyzacji projektu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przeniesienie modelu do osobnego projektu. Dłubanie nad serwerem iis, niestety </t>
+  </si>
+  <si>
+    <t>firebase</t>
   </si>
 </sst>
 </file>
@@ -579,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +624,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,6 +1164,28 @@
       </c>
       <c r="C51" s="5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1166,21 +1194,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1312,24 +1325,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1345,4 +1356,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327C796-83EB-498F-AFF7-B105FF8C06A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A4903C-EB5B-4CF0-99E6-B67FEBB106CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>firebase</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Firebase - pierwsza działająca w pełni wersja</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,7 +630,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,6 +1192,39 @@
       </c>
       <c r="C53" s="5" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1194,6 +1233,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1325,22 +1379,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1356,21 +1412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C9AE7D-5190-451D-8EF0-C389F38B41C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92A6E7-0F41-4C17-B18C-802B62E16830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
+    <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -163,6 +157,49 @@
   <si>
     <t>Nowa tabela bazie stworzona przy użyciu migracji EF. Zmieniona wiadomość wyjątku dodawania do bazy danych. 
 Logowanie czasu dostarczenia raportu i czy został poprawnie dodany. Nowe testy dla XMLExport.</t>
+  </si>
+  <si>
+    <t>Dodawanie summaries. Czytanie o sposobach dokumentacji. Dokumentacja do XMLExport</t>
+  </si>
+  <si>
+    <t>Nowy projekt z asp.net. Tutorial dla signalr i asp.net. Wyświetlanie z bazy CarsDB. Próba ogarnięcia przesyłania danych
+za pomocą signalr.</t>
+  </si>
+  <si>
+    <t>Praca nad projektem SignalR. Pierwszy kontakt z dependency injection. Prototyp przesyłania danych za pomocą signalr</t>
+  </si>
+  <si>
+    <t>Sprzątanie niepotrzebnego kodu. Synchro projektu signalr z rabbitmq.</t>
+  </si>
+  <si>
+    <t>Prototyp rejestracji.</t>
+  </si>
+  <si>
+    <t>Praca nad projektem</t>
+  </si>
+  <si>
+    <t>Wypełnienie i wysłanie danych do dziekanatu o praktyki. Próba dopisania emaila do projektu i zmienienia potwierdzania. (nieudana)</t>
+  </si>
+  <si>
+    <t>Wyszukiwanie. Nowy błąd i szukanie rozwiązania.</t>
+  </si>
+  <si>
+    <t>sql dependency manager jako singleton. Naprawa buga z multidependency</t>
+  </si>
+  <si>
+    <t>Wysyłanie danych w pętli czasowej. Próba odpalenia singletona na contexcie, nieudana, nie da się bez restrukturyzacji projektu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przeniesienie modelu do osobnego projektu. Dłubanie nad serwerem iis, niestety </t>
+  </si>
+  <si>
+    <t>firebase</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>Firebase - pierwsza działająca w pełni wersja</t>
   </si>
 </sst>
 </file>
@@ -554,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -593,7 +630,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>74.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,6 +1060,171 @@
       </c>
       <c r="C41" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1037,6 +1239,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1168,15 +1379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
@@ -1187,6 +1389,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1202,12 +1412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Czarek\source\repos\XMLExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92A6E7-0F41-4C17-B18C-802B62E16830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708547C-6C8B-4A22-86B3-7BF621BC20BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -200,6 +200,33 @@
   </si>
   <si>
     <t>Firebase - pierwsza działająca w pełni wersja</t>
+  </si>
+  <si>
+    <t>dokumentacja, sprzatanie niepotrzebnego kodu</t>
+  </si>
+  <si>
+    <t>praca nad serwerem</t>
+  </si>
+  <si>
+    <t>serwer - kontynuacja</t>
+  </si>
+  <si>
+    <t>SignalR - grupy</t>
+  </si>
+  <si>
+    <t>Firebase - grupy. Dokumentacja i ostatnie poprawki.</t>
+  </si>
+  <si>
+    <t>firebase i serwer</t>
+  </si>
+  <si>
+    <t>Udział w webinarze "Podstawy Fluttera"</t>
+  </si>
+  <si>
+    <t>Udział w webinarze "Szybkie myki na lepsze produkty"</t>
+  </si>
+  <si>
+    <t>praca nad projektem - bugfixing signalr/firebase i inne</t>
   </si>
 </sst>
 </file>
@@ -262,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -276,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -591,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -630,7 +658,7 @@
       </c>
       <c r="E2">
         <f>SUM(B:B)</f>
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +699,7 @@
         <v>44015</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -722,80 +750,80 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>44019</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44020</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44021</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44025</v>
+        <v>44021</v>
       </c>
       <c r="B16" s="1">
         <v>1.5</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44025</v>
+        <v>44021</v>
       </c>
       <c r="B17" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,10 +831,10 @@
         <v>44025</v>
       </c>
       <c r="B18" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +842,10 @@
         <v>44025</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +856,7 @@
         <v>0.5</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,65 +875,65 @@
         <v>44025</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B23" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B25" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,51 +941,51 @@
         <v>44028</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44032</v>
+        <v>44028</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44032</v>
+        <v>44028</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B31" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -965,68 +993,68 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,10 +1062,10 @@
         <v>44039</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,186 +1073,296 @@
         <v>44039</v>
       </c>
       <c r="B40" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44043</v>
+        <v>44040</v>
       </c>
       <c r="B44" s="1">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B45" s="1">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44046</v>
+        <v>44043</v>
       </c>
       <c r="B46" s="1">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44046</v>
+        <v>44043</v>
       </c>
       <c r="B47" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44053</v>
+        <v>44046</v>
       </c>
       <c r="B48" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44053</v>
+        <v>44046</v>
       </c>
       <c r="B49" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B50" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B51" s="1">
         <v>1.5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B53" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B54" s="1">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B55" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>44057</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B58" s="1">
         <v>2</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1233,21 +1371,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FFFA20196C5244A198B956263BCCC6" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e665c9909af2d00025ac938ed956f4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d88d86-0354-4735-9d62-80a4ac60412a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d6152cd73a56170a76ea3621d94087c" ns2:_="">
     <xsd:import namespace="65d88d86-0354-4735-9d62-80a4ac60412a"/>
@@ -1379,24 +1502,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCBFDAD8-0F07-4DA1-82D3-259155DCA012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1412,4 +1533,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>